--- a/CRCLance.xlsx
+++ b/CRCLance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tagub\Documents\Zeeslag\Zeeslag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF945BC8-97A6-4E95-A08F-A89D1F6E5637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89012053-724B-404D-BD3B-7BADE76B474D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>matrix</t>
   </si>
   <si>
-    <t>2 arrays van Schepen</t>
-  </si>
-  <si>
     <t>getObject</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>List Ships</t>
+  </si>
+  <si>
+    <t>2 arrays van schepen of null's</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -369,6 +369,51 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,56 +743,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="F1" s="8" t="s">
+      <c r="A1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="F1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="F2" s="10" t="s">
+      <c r="B2" s="21"/>
+      <c r="F2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="F3" s="12" t="s">
+      <c r="A3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="F3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="F6" s="16" t="s">
+      <c r="B6" s="27"/>
+      <c r="F6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -768,7 +813,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
@@ -779,44 +824,44 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -826,14 +871,14 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="F13" s="16" t="s">
+      <c r="B13" s="27"/>
+      <c r="F13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -851,23 +896,23 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="1"/>
       <c r="F16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -895,221 +940,211 @@
       <c r="F20" s="7"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="F25" s="8" t="s">
+      <c r="B22" s="9"/>
+      <c r="F22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="F23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="F24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="30"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="F26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="F27" s="12" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="F27" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
+      <c r="G29" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="F30" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="1"/>
+      <c r="F31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="1"/>
+      <c r="F32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="F34" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="G35" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="1"/>
-      <c r="F34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="1"/>
-      <c r="F35" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="1"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="F37" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A39" s="6"/>
+      <c r="B39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A40" s="6"/>
+      <c r="B40" s="1"/>
       <c r="F40" s="6"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="1"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="1"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="1"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="2"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="2"/>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="2"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F37:G37"/>
+  <mergeCells count="10">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B5"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B5"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1125,6 +1160,57 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Invited_Students xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Templates xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <CultureName xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Students xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <FolderType xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Owner xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Distribution_Groups xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <LMS_Mappings xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Math_Settings xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <NotebookType xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Student_Groups xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <AppVersion xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <TeamsChannelId xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Invited_Teachers xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Teachers xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A444A9CE5D03248B9B29E373F22C7A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c474c4396a8862bd569943eb20cf3a19">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2660787d-0a3f-478f-b0f8-492cf3c7ba0a" xmlns:ns4="64c1798a-9d4c-4d8f-8ad9-9fd336812303" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8991a38c0e0254479a81c5501213575" ns3:_="" ns4:_="">
     <xsd:import namespace="2660787d-0a3f-478f-b0f8-492cf3c7ba0a"/>
@@ -1503,57 +1589,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Invited_Students xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Templates xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <CultureName xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Students xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <FolderType xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Owner xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Distribution_Groups xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <LMS_Mappings xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Math_Settings xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <NotebookType xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Student_Groups xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <AppVersion xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <TeamsChannelId xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Invited_Teachers xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Teachers xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A565B5F5-2D74-4DCA-A047-A365A5B96D56}">
   <ds:schemaRefs>
@@ -1563,6 +1598,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B308C125-6C07-40B1-8314-6340965684B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2660787d-0a3f-478f-b0f8-492cf3c7ba0a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="64c1798a-9d4c-4d8f-8ad9-9fd336812303"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BE66DC1-43CD-414D-97F2-E5F868C6421D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1579,21 +1631,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B308C125-6C07-40B1-8314-6340965684B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2660787d-0a3f-478f-b0f8-492cf3c7ba0a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="64c1798a-9d4c-4d8f-8ad9-9fd336812303"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CRCLance.xlsx
+++ b/CRCLance.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tagub\Documents\Zeeslag\Zeeslag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Zeeslag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89012053-724B-404D-BD3B-7BADE76B474D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>Attributen</t>
   </si>
@@ -93,12 +92,6 @@
     <t>De klasse bord beheert alle schepen op het speeldveld en moet (voor nu het bord updaten en tekenen)</t>
   </si>
   <si>
-    <t>enum fases</t>
-  </si>
-  <si>
-    <t>zetten van de schepen fase en het spel zelf</t>
-  </si>
-  <si>
     <t>GameMaster</t>
   </si>
   <si>
@@ -151,12 +144,15 @@
   </si>
   <si>
     <t>2 arrays van schepen of null's</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,6 +366,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -394,30 +411,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -728,73 +724,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="38.28515625" customWidth="1"/>
+    <col min="1" max="2" width="38.33203125" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="F1" s="18" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="F1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="F2" s="20" t="s">
+      <c r="B2" s="28"/>
+      <c r="F2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="F3" s="22" t="s">
+      <c r="B3" s="30"/>
+      <c r="F3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="F6" s="26" t="s">
+      <c r="B6" s="24"/>
+      <c r="F6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -808,12 +804,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
@@ -822,65 +818,63 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="1"/>
       <c r="F12" s="7"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="F13" s="26" t="s">
+      <c r="B13" s="24"/>
+      <c r="F13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -894,7 +888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -902,56 +896,56 @@
         <v>6</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="1"/>
       <c r="F16" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="1"/>
       <c r="F17" s="6"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="1"/>
       <c r="F19" s="6"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="2"/>
       <c r="F20" s="7"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="9"/>
       <c r="F22" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>5</v>
       </c>
@@ -961,29 +955,29 @@
       </c>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="29"/>
+      <c r="B24" s="19"/>
       <c r="F24" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
-      <c r="B25" s="30"/>
+      <c r="B25" s="20"/>
       <c r="F25" s="12"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>0</v>
       </c>
@@ -993,7 +987,7 @@
       </c>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -1007,61 +1001,61 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="1"/>
       <c r="F31" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="1"/>
       <c r="F32" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="1"/>
       <c r="F33" s="7"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>3</v>
       </c>
@@ -1071,7 +1065,7 @@
       </c>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>1</v>
       </c>
@@ -1085,23 +1079,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>18</v>
@@ -1109,25 +1103,25 @@
       <c r="F37" s="6"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="1"/>
       <c r="F38" s="6"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="1"/>
       <c r="F39" s="6"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="1"/>
       <c r="F40" s="6"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41" s="2"/>
       <c r="F41" s="7"/>
@@ -1135,82 +1129,22 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Invited_Students xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Templates xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <CultureName xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Students xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <FolderType xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Owner xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Distribution_Groups xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <LMS_Mappings xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Math_Settings xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <NotebookType xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Student_Groups xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <AppVersion xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <TeamsChannelId xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Invited_Teachers xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
-    <Teachers xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A444A9CE5D03248B9B29E373F22C7A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c474c4396a8862bd569943eb20cf3a19">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2660787d-0a3f-478f-b0f8-492cf3c7ba0a" xmlns:ns4="64c1798a-9d4c-4d8f-8ad9-9fd336812303" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8991a38c0e0254479a81c5501213575" ns3:_="" ns4:_="">
     <xsd:import namespace="2660787d-0a3f-478f-b0f8-492cf3c7ba0a"/>
@@ -1589,10 +1523,81 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Invited_Students xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Templates xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <CultureName xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Students xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <FolderType xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Owner xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Distribution_Groups xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <LMS_Mappings xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Math_Settings xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <NotebookType xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Student_Groups xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <AppVersion xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <TeamsChannelId xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Invited_Teachers xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303" xsi:nil="true"/>
+    <Teachers xmlns="64c1798a-9d4c-4d8f-8ad9-9fd336812303">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A565B5F5-2D74-4DCA-A047-A365A5B96D56}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BE66DC1-43CD-414D-97F2-E5F868C6421D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2660787d-0a3f-478f-b0f8-492cf3c7ba0a"/>
+    <ds:schemaRef ds:uri="64c1798a-9d4c-4d8f-8ad9-9fd336812303"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1615,20 +1620,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BE66DC1-43CD-414D-97F2-E5F868C6421D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A565B5F5-2D74-4DCA-A047-A365A5B96D56}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2660787d-0a3f-478f-b0f8-492cf3c7ba0a"/>
-    <ds:schemaRef ds:uri="64c1798a-9d4c-4d8f-8ad9-9fd336812303"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CRCLance.xlsx
+++ b/CRCLance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Attributen</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Bord</t>
   </si>
   <si>
-    <t>lijst van schepen</t>
-  </si>
-  <si>
     <t>vaste lengte van het bord</t>
   </si>
   <si>
@@ -92,15 +89,6 @@
     <t>De klasse bord beheert alle schepen op het speeldveld en moet (voor nu het bord updaten en tekenen)</t>
   </si>
   <si>
-    <t>GameMaster</t>
-  </si>
-  <si>
-    <t>Het verloop van het spel wordt beheerd door deze klasse</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>player1</t>
   </si>
   <si>
@@ -131,9 +119,6 @@
     <t>Board</t>
   </si>
   <si>
-    <t>gameLoop</t>
-  </si>
-  <si>
     <t>fire</t>
   </si>
   <si>
@@ -147,6 +132,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>startFire</t>
   </si>
 </sst>
 </file>
@@ -727,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,11 +728,11 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B1" s="26"/>
       <c r="F1" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="26"/>
     </row>
@@ -760,11 +748,11 @@
     </row>
     <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="30"/>
       <c r="F3" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="30"/>
     </row>
@@ -806,56 +794,56 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -890,30 +878,32 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="1"/>
       <c r="F16" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="1"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -937,12 +927,10 @@
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="F22" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="F22" s="8"/>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -950,19 +938,15 @@
         <v>5</v>
       </c>
       <c r="B23" s="11"/>
-      <c r="F23" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="F23" s="10"/>
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="19"/>
-      <c r="F24" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="F24" s="12"/>
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -982,9 +966,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="17"/>
-      <c r="F27" s="16" t="s">
-        <v>0</v>
-      </c>
+      <c r="F27" s="16"/>
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -994,60 +976,36 @@
       <c r="B28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="1"/>
-      <c r="F31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="1"/>
-      <c r="F32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
@@ -1060,9 +1018,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="17"/>
-      <c r="F34" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="F34" s="16"/>
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1072,33 +1028,25 @@
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="1"/>
